--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/core_full_30_90.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/core_full_30_90.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{C27EA2A5-396D-4356-A170-B33364C63986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87976B91-0FF4-49CA-9948-82A81D9EF583}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{C27EA2A5-396D-4356-A170-B33364C63986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3AF69574-D930-4247-8AA2-6103D7576D92}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="169">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Continuity TotalShipping</t>
+  </si>
+  <si>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,12 +651,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -966,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1110,9 +1107,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1431,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2559,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EB952E-01CE-4C87-9EF6-565366FB5E6B}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2635,7 +2629,9 @@
       <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="50"/>
+      <c r="I2" s="6">
+        <v>804</v>
+      </c>
       <c r="J2" s="21">
         <v>607</v>
       </c>
@@ -3348,7 +3344,7 @@
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="13" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>125</v>
@@ -3762,6 +3758,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -3926,15 +3931,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3942,11 +3938,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/core_full_30_90.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/core_full_30_90.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{C27EA2A5-396D-4356-A170-B33364C63986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3AF69574-D930-4247-8AA2-6103D7576D92}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{C27EA2A5-396D-4356-A170-B33364C63986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A9CFDC9-2C63-423E-82CB-8DA077365605}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
+    <sheet name="Version 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -53,10 +53,13 @@
     <t>Price Book ID</t>
   </si>
   <si>
-    <t>Recommendation Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	https://www.meaningfulbeauty.com/campaign/core2</t>
+    <t>Pre-purchase Recommendation Type</t>
+  </si>
+  <si>
+    <t>Post-purchase Recommendation Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	https://www.meaningfulbeauty.com</t>
   </si>
   <si>
     <t>https://www.meaningfulbeauty.com/?src=core_full_30_90</t>
@@ -192,7 +195,7 @@
   <si>
     <t>Free Gift Choices: 
 Glow and Go Trio - MT2A3649
-Eye Crème &amp; Lip Duo - MT2A3546</t>
+Firming and Tightening Body Hydration Treatment - MT1A3512</t>
   </si>
   <si>
     <t>Entry Promotion 2</t>
@@ -232,6 +235,9 @@
   </si>
   <si>
     <t>RMTA3FU</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Total Price</t>
   </si>
   <si>
     <t>Post Purchase Upsell Pricing</t>
@@ -335,6 +341,12 @@
     <t>IMTA36D</t>
   </si>
   <si>
+    <t>Continuity Total Pricing</t>
+  </si>
+  <si>
+    <t>Continuity TotalShipping</t>
+  </si>
+  <si>
     <t>Continuity Pricing (product)</t>
   </si>
   <si>
@@ -405,16 +417,13 @@
     <t>Pre-Purchase Entry Pricing</t>
   </si>
   <si>
-    <t>$59.95</t>
-  </si>
-  <si>
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
     <t>$0</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>RMTA483</t>
@@ -535,30 +544,21 @@
     <t>End</t>
   </si>
   <si>
-    <t>Pre-purchase Recommendation Type</t>
-  </si>
-  <si>
-    <t>Post-purchase Recommendation Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	https://www.meaningfulbeauty.com</t>
+    <t>Recommendation Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	https://www.meaningfulbeauty.com/campaign/core2</t>
   </si>
   <si>
     <t>Free Gift Choices: 
 Glow and Go Trio - MT2A3649
-Firming and Tightening Body Hydration Treatment - MT1A3512</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Total Price</t>
-  </si>
-  <si>
-    <t>Continuity Total Pricing</t>
-  </si>
-  <si>
-    <t>Continuity TotalShipping</t>
-  </si>
-  <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+Eye Crème &amp; Lip Duo - MT2A3546</t>
+  </si>
+  <si>
+    <t>$59.95</t>
+  </si>
+  <si>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
 </sst>
 </file>
@@ -1422,6 +1422,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EB952E-01CE-4C87-9EF6-565366FB5E6B}">
+  <dimension ref="A1:J110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>53</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6">
+        <v>804</v>
+      </c>
+      <c r="J2" s="21">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="25"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="25"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="43"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
+      <c r="A22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75">
+      <c r="A24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75">
+      <c r="A25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="110.25">
+      <c r="A26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="108" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="47.25">
+      <c r="A28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75">
+      <c r="A29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75">
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75">
+      <c r="A31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75">
+      <c r="A32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75">
+      <c r="A34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75">
+      <c r="A35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75">
+      <c r="A36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="11">
+        <v>209.85</v>
+      </c>
+      <c r="C36" s="11">
+        <v>149.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75">
+      <c r="A37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="12">
+        <v>69.95</v>
+      </c>
+      <c r="C37" s="11">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75">
+      <c r="A39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="9">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75">
+      <c r="A40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="126">
+      <c r="A41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="105">
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="110.25">
+      <c r="A43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="47.25">
+      <c r="A44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75">
+      <c r="A45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75">
+      <c r="A46" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75">
+      <c r="A47" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75">
+      <c r="A48" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75">
+      <c r="A49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75">
+      <c r="A51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75">
+      <c r="A52" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75">
+      <c r="A53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="9">
+        <v>3</v>
+      </c>
+      <c r="C53" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75">
+      <c r="A54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75">
+      <c r="A55" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="11">
+        <v>209.85</v>
+      </c>
+      <c r="C55" s="11">
+        <v>149.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75">
+      <c r="A56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="11">
+        <v>14.97</v>
+      </c>
+      <c r="C56" s="11">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75">
+      <c r="A57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="11">
+        <v>69.95</v>
+      </c>
+      <c r="C57" s="11">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75">
+      <c r="A58" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="C58" s="11">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75">
+      <c r="A59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75">
+      <c r="A60" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75">
+      <c r="A61" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+    </row>
+    <row r="62" spans="1:3" ht="31.5">
+      <c r="A62" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75">
+      <c r="A63" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75">
+      <c r="A64" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="39">
+        <v>79.95</v>
+      </c>
+      <c r="C64" s="23">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75">
+      <c r="A65" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75">
+      <c r="A66" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75">
+      <c r="A68" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="14">
+        <v>1</v>
+      </c>
+      <c r="C68" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75">
+      <c r="A69" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75">
+      <c r="A70" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="23">
+        <v>79.95</v>
+      </c>
+      <c r="C70" s="23">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="40">
+        <v>0</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75">
+      <c r="A72" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="47.25">
+      <c r="A73" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75">
+      <c r="A74" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75">
+      <c r="A75" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75">
+      <c r="A76" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75">
+      <c r="A77" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75">
+      <c r="A78" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3" ht="110.25">
+      <c r="A79" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="122.25" customHeight="1">
+      <c r="A80" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75">
+      <c r="A81" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75">
+      <c r="A82" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75">
+      <c r="A83" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75">
+      <c r="A84" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="14">
+        <v>3</v>
+      </c>
+      <c r="C84" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75">
+      <c r="A85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="23">
+        <v>239.85</v>
+      </c>
+      <c r="C85" s="23">
+        <v>179.85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75">
+      <c r="A86" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="23">
+        <v>79.95</v>
+      </c>
+      <c r="C86" s="23">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75">
+      <c r="A87" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75">
+      <c r="A88" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75">
+      <c r="A89" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="110.25">
+      <c r="A90" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="111" customHeight="1">
+      <c r="A91" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="110.25">
+      <c r="A92" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75">
+      <c r="A93" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="47.25">
+      <c r="A94" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75">
+      <c r="A95" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+    </row>
+    <row r="96" spans="1:3" ht="15.75">
+      <c r="A96" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.75">
+      <c r="A97" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75">
+      <c r="A98" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75">
+      <c r="A99" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75">
+      <c r="A100" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75">
+      <c r="A101" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75">
+      <c r="A102" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75">
+      <c r="A103" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="14">
+        <v>3</v>
+      </c>
+      <c r="C103" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75">
+      <c r="A104" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="23">
+        <v>239.85</v>
+      </c>
+      <c r="C104" s="23">
+        <v>179.85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75">
+      <c r="A105" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="23">
+        <v>14.97</v>
+      </c>
+      <c r="C105" s="23">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75">
+      <c r="A106" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="23">
+        <v>79.95</v>
+      </c>
+      <c r="C106" s="23">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75">
+      <c r="A107" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="C107" s="23">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75">
+      <c r="A108" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75">
+      <c r="A109" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75">
+      <c r="A110" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A61:C61"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.meaningfulbeauty.com" xr:uid="{04041D35-9040-428C-9A83-5256C2F87E52}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2E18C886-FD2C-4264-9FA3-ACD8BC7941FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
@@ -1469,33 +2677,33 @@
         <v>7</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="42" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6">
         <v>53</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="21">
         <v>607</v>
@@ -1571,47 +2779,47 @@
     </row>
     <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -1622,62 +2830,62 @@
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -1688,29 +2896,29 @@
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
       <c r="A23" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="11">
         <v>0</v>
@@ -1721,116 +2929,116 @@
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="110.25">
       <c r="A26" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="94.5">
       <c r="A27" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="47.25">
       <c r="A28" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" s="12">
         <v>69.95</v>
@@ -1841,7 +3049,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="12">
         <v>0</v>
@@ -1852,7 +3060,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="9">
         <v>3</v>
@@ -1861,138 +3069,138 @@
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="126">
       <c r="A40" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="105">
       <c r="A41" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="110.25">
       <c r="A42" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="47.25">
       <c r="A43" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" ht="15.75">
       <c r="A46" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="9">
         <v>3</v>
@@ -2003,18 +3211,18 @@
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B54" s="11">
         <v>69.95</v>
@@ -2025,7 +3233,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.75">
       <c r="A55" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B55" s="11">
         <v>4.99</v>
@@ -2036,96 +3244,96 @@
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="48" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
     </row>
     <row r="59" spans="1:3" ht="31.5">
       <c r="A59" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
       <c r="A61" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B65" s="14">
         <v>1</v>
@@ -2136,160 +3344,160 @@
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
       <c r="A67" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B67" s="23">
         <v>79.95</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B68" s="40">
         <v>0</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="13" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="47.25">
       <c r="A70" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3" ht="15.75">
       <c r="A73" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3" ht="110.25">
       <c r="A76" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="94.5">
       <c r="A77" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
       <c r="A79" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B81" s="14">
         <v>3</v>
@@ -2300,7 +3508,7 @@
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B82" s="23">
         <v>79.95</v>
@@ -2311,171 +3519,171 @@
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
       <c r="A85" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="110.25">
       <c r="A86" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="94.5">
       <c r="A87" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="110.25">
       <c r="A88" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="47.25">
       <c r="A90" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
       <c r="A91" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75">
       <c r="A97" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" s="14">
         <v>3</v>
@@ -2486,7 +3694,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B100" s="23">
         <v>79.95</v>
@@ -2497,7 +3705,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B101" s="23">
         <v>4.99</v>
@@ -2508,29 +3716,29 @@
     </row>
     <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -2549,1224 +3757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EB952E-01CE-4C87-9EF6-565366FB5E6B}">
-  <dimension ref="A1:J110"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="57.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.28515625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6">
-        <v>53</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6">
-        <v>804</v>
-      </c>
-      <c r="J2" s="21">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="25"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="25"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="25"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="43"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="11">
-        <v>0</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="110.25">
-      <c r="A26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="108" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="47.25">
-      <c r="A28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75">
-      <c r="A31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75">
-      <c r="A33" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75">
-      <c r="A34" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75">
-      <c r="A35" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75">
-      <c r="A36" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="11">
-        <v>209.85</v>
-      </c>
-      <c r="C36" s="11">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75">
-      <c r="A37" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="12">
-        <v>69.95</v>
-      </c>
-      <c r="C37" s="11">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="12">
-        <v>0</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="9">
-        <v>3</v>
-      </c>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75">
-      <c r="A40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="126">
-      <c r="A41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="105">
-      <c r="A42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="110.25">
-      <c r="A43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="47.25">
-      <c r="A44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75">
-      <c r="A45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75">
-      <c r="A46" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75">
-      <c r="A47" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75">
-      <c r="A48" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75">
-      <c r="A49" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75">
-      <c r="A51" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75">
-      <c r="A52" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75">
-      <c r="A53" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="9">
-        <v>3</v>
-      </c>
-      <c r="C53" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75">
-      <c r="A54" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="11">
-        <v>209.85</v>
-      </c>
-      <c r="C55" s="11">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="11">
-        <v>14.97</v>
-      </c>
-      <c r="C56" s="11">
-        <v>11.97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="11">
-        <v>69.95</v>
-      </c>
-      <c r="C57" s="11">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75">
-      <c r="A58" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="11">
-        <v>4.99</v>
-      </c>
-      <c r="C58" s="11">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75">
-      <c r="A59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75">
-      <c r="A60" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75">
-      <c r="A61" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-    </row>
-    <row r="62" spans="1:3" ht="31.5">
-      <c r="A62" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75">
-      <c r="A63" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75">
-      <c r="A64" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="39">
-        <v>79.95</v>
-      </c>
-      <c r="C64" s="23">
-        <v>59.95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75">
-      <c r="A66" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A67" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75">
-      <c r="A68" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="14">
-        <v>1</v>
-      </c>
-      <c r="C68" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75">
-      <c r="A69" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75">
-      <c r="A70" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="23">
-        <v>79.95</v>
-      </c>
-      <c r="C70" s="23">
-        <v>59.95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A71" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="40">
-        <v>0</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75">
-      <c r="A72" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="47.25">
-      <c r="A73" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75">
-      <c r="A74" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75">
-      <c r="A75" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-    </row>
-    <row r="76" spans="1:3" ht="15.75">
-      <c r="A76" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75">
-      <c r="A77" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75">
-      <c r="A78" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="1:3" ht="110.25">
-      <c r="A79" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="122.25" customHeight="1">
-      <c r="A80" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75">
-      <c r="A81" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75">
-      <c r="A82" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75">
-      <c r="A83" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75">
-      <c r="A84" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="14">
-        <v>3</v>
-      </c>
-      <c r="C84" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75">
-      <c r="A85" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" s="23">
-        <v>239.85</v>
-      </c>
-      <c r="C85" s="23">
-        <v>179.85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75">
-      <c r="A86" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="23">
-        <v>79.95</v>
-      </c>
-      <c r="C86" s="23">
-        <v>59.95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75">
-      <c r="A87" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75">
-      <c r="A88" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75">
-      <c r="A89" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="110.25">
-      <c r="A90" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="111" customHeight="1">
-      <c r="A91" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="110.25">
-      <c r="A92" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75">
-      <c r="A93" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="47.25">
-      <c r="A94" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75">
-      <c r="A95" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-    </row>
-    <row r="96" spans="1:3" ht="15.75">
-      <c r="A96" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-    </row>
-    <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75">
-      <c r="A98" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75">
-      <c r="A100" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75">
-      <c r="A101" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75">
-      <c r="A102" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75">
-      <c r="A103" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="14">
-        <v>3</v>
-      </c>
-      <c r="C103" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75">
-      <c r="A104" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B104" s="23">
-        <v>239.85</v>
-      </c>
-      <c r="C104" s="23">
-        <v>179.85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" s="23">
-        <v>14.97</v>
-      </c>
-      <c r="C105" s="23">
-        <v>11.97</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75">
-      <c r="A106" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="23">
-        <v>79.95</v>
-      </c>
-      <c r="C106" s="23">
-        <v>59.95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75">
-      <c r="A107" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="C107" s="23">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75">
-      <c r="A109" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A61:C61"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.meaningfulbeauty.com" xr:uid="{04041D35-9040-428C-9A83-5256C2F87E52}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{2E18C886-FD2C-4264-9FA3-ACD8BC7941FF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -3931,6 +3922,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3938,11 +3938,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
